--- a/data/Chapter07.xlsx
+++ b/data/Chapter07.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEB9D8C-BD47-461A-8704-1C3D5332A27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="852" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="852" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="14" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="17" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,6 +439,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +491,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,15 +683,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -691,9 +739,6 @@
       </c>
       <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4">
-        <v>102</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -778,10 +823,208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>2900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -839,11 +1082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +1094,7 @@
     <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -867,11 +1110,8 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -887,11 +1127,8 @@
       <c r="E2" s="1">
         <v>43320</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -907,11 +1144,8 @@
       <c r="E3" s="1">
         <v>43321</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -927,11 +1161,8 @@
       <c r="E4" s="1">
         <v>43322</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -947,11 +1178,8 @@
       <c r="E5" s="1">
         <v>43323</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -966,9 +1194,6 @@
       </c>
       <c r="E6" s="1">
         <v>43323</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -978,11 +1203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1066,6 +1291,9 @@
       <c r="E4" s="1">
         <v>43322</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1115,11 +1343,149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F33661-279C-4912-9F89-D28E9CD6DC05}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>240</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,9 +1569,6 @@
       <c r="E4" s="1">
         <v>43322</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1254,8 +1617,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1422,16 +1785,17 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1502,8 +1866,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1557,8 +1921,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1731,202 +2095,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>2900</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Chapter07.xlsx
+++ b/data/Chapter07.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEB9D8C-BD47-461A-8704-1C3D5332A27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB1C5B8-E027-4598-81A9-A584F0D77FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="852" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,34 +258,6 @@
   </si>
   <si>
     <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sale2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脸书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +799,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1484,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,10 +1594,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
@@ -1923,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2011,86 +1988,6 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>5000</v>
-      </c>
-      <c r="D14">
-        <v>5050</v>
-      </c>
-      <c r="E14">
-        <v>5050</v>
-      </c>
-      <c r="F14">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15">
-        <v>3500</v>
-      </c>
-      <c r="D15">
-        <v>3800</v>
-      </c>
-      <c r="E15">
-        <v>3800</v>
-      </c>
-      <c r="F15">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>2300</v>
-      </c>
-      <c r="D16">
-        <v>2900</v>
-      </c>
-      <c r="E16">
-        <v>2900</v>
-      </c>
-      <c r="F16">
-        <v>2900</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
